--- a/result.xlsx
+++ b/result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="530">
   <si>
     <t>HPL_N</t>
   </si>
@@ -49,31 +49,1561 @@
     <t>10000</t>
   </si>
   <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>20000</t>
+  </si>
+  <si>
+    <t>30000</t>
+  </si>
+  <si>
+    <t>40000</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>1250</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>256</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
     <t>4</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>0.0472743</t>
+  </si>
+  <si>
+    <t>0.0648381</t>
+  </si>
+  <si>
+    <t>0.0267587</t>
+  </si>
+  <si>
+    <t>0.045124</t>
+  </si>
+  <si>
+    <t>0.0582431</t>
+  </si>
+  <si>
+    <t>0.00673193</t>
+  </si>
+  <si>
+    <t>0.0640256</t>
+  </si>
+  <si>
+    <t>0.0117793</t>
+  </si>
+  <si>
+    <t>0.0609975</t>
+  </si>
+  <si>
     <t>0.0227894</t>
   </si>
   <si>
+    <t>0.00601599</t>
+  </si>
+  <si>
+    <t>0.00665682</t>
+  </si>
+  <si>
+    <t>0.00795633</t>
+  </si>
+  <si>
+    <t>0.00650798</t>
+  </si>
+  <si>
+    <t>0.00290241</t>
+  </si>
+  <si>
+    <t>0.00659745</t>
+  </si>
+  <si>
+    <t>0.0036564</t>
+  </si>
+  <si>
+    <t>0.0044009</t>
+  </si>
+  <si>
+    <t>0.00708767</t>
+  </si>
+  <si>
+    <t>0.00626544</t>
+  </si>
+  <si>
+    <t>0.00926727</t>
+  </si>
+  <si>
+    <t>0.00287046</t>
+  </si>
+  <si>
+    <t>0.00494192</t>
+  </si>
+  <si>
+    <t>0.00495137</t>
+  </si>
+  <si>
+    <t>0.00683974</t>
+  </si>
+  <si>
+    <t>0.0664941</t>
+  </si>
+  <si>
+    <t>0.079651</t>
+  </si>
+  <si>
+    <t>0.027567</t>
+  </si>
+  <si>
+    <t>0.0611913</t>
+  </si>
+  <si>
+    <t>0.0675853</t>
+  </si>
+  <si>
+    <t>0.00598884</t>
+  </si>
+  <si>
+    <t>0.0775597</t>
+  </si>
+  <si>
+    <t>0.0119274</t>
+  </si>
+  <si>
+    <t>0.0730162</t>
+  </si>
+  <si>
+    <t>0.0232569</t>
+  </si>
+  <si>
+    <t>0.0468347</t>
+  </si>
+  <si>
+    <t>0.0145184</t>
+  </si>
+  <si>
+    <t>0.0170392</t>
+  </si>
+  <si>
+    <t>0.0116903</t>
+  </si>
+  <si>
+    <t>0.00650251</t>
+  </si>
+  <si>
+    <t>0.00287716</t>
+  </si>
+  <si>
+    <t>0.00485501</t>
+  </si>
+  <si>
+    <t>0.00831078</t>
+  </si>
+  <si>
+    <t>0.018345</t>
+  </si>
+  <si>
+    <t>0.0233744</t>
+  </si>
+  <si>
+    <t>0.0186413</t>
+  </si>
+  <si>
+    <t>0.00628011</t>
+  </si>
+  <si>
+    <t>0.00288766</t>
+  </si>
+  <si>
+    <t>0.00741381</t>
+  </si>
+  <si>
+    <t>0.0119861</t>
+  </si>
+  <si>
+    <t>0.087011</t>
+  </si>
+  <si>
+    <t>0.0519583</t>
+  </si>
+  <si>
+    <t>0.0279752</t>
+  </si>
+  <si>
+    <t>0.0741506</t>
+  </si>
+  <si>
+    <t>0.051101</t>
+  </si>
+  <si>
+    <t>0.00600338</t>
+  </si>
+  <si>
+    <t>0.0119368</t>
+  </si>
+  <si>
+    <t>0.0899706</t>
+  </si>
+  <si>
+    <t>0.0525801</t>
+  </si>
+  <si>
+    <t>0.0280056</t>
+  </si>
+  <si>
+    <t>0.0712029</t>
+  </si>
+  <si>
+    <t>0.0060108</t>
+  </si>
+  <si>
+    <t>0.0119599</t>
+  </si>
+  <si>
+    <t>0.165672</t>
+  </si>
+  <si>
+    <t>0.258789</t>
+  </si>
+  <si>
+    <t>0.402262</t>
+  </si>
+  <si>
+    <t>0.280846</t>
+  </si>
+  <si>
+    <t>0.27198</t>
+  </si>
+  <si>
+    <t>0.0340231</t>
+  </si>
+  <si>
+    <t>0.263159</t>
+  </si>
+  <si>
+    <t>0.395905</t>
+  </si>
+  <si>
+    <t>0.267642</t>
+  </si>
+  <si>
     <t>0.276605</t>
   </si>
   <si>
+    <t>0.379685</t>
+  </si>
+  <si>
+    <t>7.64973</t>
+  </si>
+  <si>
+    <t>0.372324</t>
+  </si>
+  <si>
+    <t>9.80123</t>
+  </si>
+  <si>
+    <t>0.0185313</t>
+  </si>
+  <si>
+    <t>0.0113863</t>
+  </si>
+  <si>
+    <t>0.279177</t>
+  </si>
+  <si>
+    <t>9.5537</t>
+  </si>
+  <si>
+    <t>0.19095</t>
+  </si>
+  <si>
+    <t>0.419773</t>
+  </si>
+  <si>
+    <t>0.466521</t>
+  </si>
+  <si>
+    <t>0.00881283</t>
+  </si>
+  <si>
+    <t>0.348727</t>
+  </si>
+  <si>
+    <t>0.547496</t>
+  </si>
+  <si>
+    <t>0.369015</t>
+  </si>
+  <si>
+    <t>0.196556</t>
+  </si>
+  <si>
+    <t>0.281201</t>
+  </si>
+  <si>
+    <t>0.275985</t>
+  </si>
+  <si>
+    <t>0.417465</t>
+  </si>
+  <si>
+    <t>0.401337</t>
+  </si>
+  <si>
+    <t>0.258296</t>
+  </si>
+  <si>
+    <t>0.266534</t>
+  </si>
+  <si>
+    <t>0.405265</t>
+  </si>
+  <si>
+    <t>0.405767</t>
+  </si>
+  <si>
+    <t>0.533197</t>
+  </si>
+  <si>
+    <t>0.402235</t>
+  </si>
+  <si>
+    <t>6.33981</t>
+  </si>
+  <si>
+    <t>0.311145</t>
+  </si>
+  <si>
+    <t>6.40769</t>
+  </si>
+  <si>
+    <t>0.0586586</t>
+  </si>
+  <si>
+    <t>0.00940451</t>
+  </si>
+  <si>
+    <t>0.261087</t>
+  </si>
+  <si>
+    <t>6.41181</t>
+  </si>
+  <si>
+    <t>0.273315</t>
+  </si>
+  <si>
+    <t>0.662402</t>
+  </si>
+  <si>
+    <t>0.367982</t>
+  </si>
+  <si>
+    <t>0.0207916</t>
+  </si>
+  <si>
+    <t>0.0056741</t>
+  </si>
+  <si>
+    <t>0.262625</t>
+  </si>
+  <si>
+    <t>0.382792</t>
+  </si>
+  <si>
+    <t>0.518321</t>
+  </si>
+  <si>
+    <t>0.404991</t>
+  </si>
+  <si>
+    <t>0.270945</t>
+  </si>
+  <si>
+    <t>0.234569</t>
+  </si>
+  <si>
+    <t>0.539792</t>
+  </si>
+  <si>
+    <t>0.34197</t>
+  </si>
+  <si>
+    <t>0.266586</t>
+  </si>
+  <si>
+    <t>0.247016</t>
+  </si>
+  <si>
+    <t>0.243003</t>
+  </si>
+  <si>
+    <t>0.241812</t>
+  </si>
+  <si>
+    <t>0.273319</t>
+  </si>
+  <si>
+    <t>0.422774</t>
+  </si>
+  <si>
+    <t>0.240009</t>
+  </si>
+  <si>
+    <t>0.00626442</t>
+  </si>
+  <si>
+    <t>0.0062638</t>
+  </si>
+  <si>
+    <t>0.00626685</t>
+  </si>
+  <si>
+    <t>0.00611176</t>
+  </si>
+  <si>
+    <t>0.0061782</t>
+  </si>
+  <si>
+    <t>0.00438812</t>
+  </si>
+  <si>
+    <t>0.00619216</t>
+  </si>
+  <si>
+    <t>0.00622778</t>
+  </si>
+  <si>
+    <t>0.00620202</t>
+  </si>
+  <si>
     <t>0.00623019</t>
   </si>
   <si>
+    <t>0.00623755</t>
+  </si>
+  <si>
+    <t>0.00428744</t>
+  </si>
+  <si>
+    <t>0.00430413</t>
+  </si>
+  <si>
+    <t>0.00424378</t>
+  </si>
+  <si>
+    <t>0.0042578</t>
+  </si>
+  <si>
+    <t>0.00637725</t>
+  </si>
+  <si>
+    <t>0.00425606</t>
+  </si>
+  <si>
+    <t>0.00422154</t>
+  </si>
+  <si>
+    <t>0.00569502</t>
+  </si>
+  <si>
+    <t>0.00588712</t>
+  </si>
+  <si>
+    <t>0.00588056</t>
+  </si>
+  <si>
+    <t>0.00663615</t>
+  </si>
+  <si>
+    <t>0.00589687</t>
+  </si>
+  <si>
+    <t>0.00573494</t>
+  </si>
+  <si>
+    <t>0.00588954</t>
+  </si>
+  <si>
+    <t>0.00618601</t>
+  </si>
+  <si>
+    <t>0.00623129</t>
+  </si>
+  <si>
+    <t>0.00618508</t>
+  </si>
+  <si>
+    <t>0.00616682</t>
+  </si>
+  <si>
+    <t>0.00620801</t>
+  </si>
+  <si>
+    <t>0.00638658</t>
+  </si>
+  <si>
+    <t>0.00625436</t>
+  </si>
+  <si>
+    <t>0.00622464</t>
+  </si>
+  <si>
+    <t>0.00620894</t>
+  </si>
+  <si>
+    <t>0.00617637</t>
+  </si>
+  <si>
+    <t>0.0062253</t>
+  </si>
+  <si>
+    <t>0.00422055</t>
+  </si>
+  <si>
+    <t>0.0043919</t>
+  </si>
+  <si>
+    <t>0.00419043</t>
+  </si>
+  <si>
+    <t>0.00439834</t>
+  </si>
+  <si>
+    <t>0.00440351</t>
+  </si>
+  <si>
+    <t>0.00438269</t>
+  </si>
+  <si>
+    <t>0.00438281</t>
+  </si>
+  <si>
+    <t>0.00661948</t>
+  </si>
+  <si>
+    <t>0.00651017</t>
+  </si>
+  <si>
+    <t>0.00653055</t>
+  </si>
+  <si>
+    <t>0.00653475</t>
+  </si>
+  <si>
+    <t>0.00581974</t>
+  </si>
+  <si>
+    <t>0.0063556</t>
+  </si>
+  <si>
+    <t>0.00648015</t>
+  </si>
+  <si>
+    <t>0.00624762</t>
+  </si>
+  <si>
+    <t>0.00612945</t>
+  </si>
+  <si>
+    <t>0.00612029</t>
+  </si>
+  <si>
+    <t>0.0062036</t>
+  </si>
+  <si>
+    <t>0.00638927</t>
+  </si>
+  <si>
+    <t>0.00600068</t>
+  </si>
+  <si>
+    <t>0.00620593</t>
+  </si>
+  <si>
+    <t>0.00619018</t>
+  </si>
+  <si>
+    <t>0.00616141</t>
+  </si>
+  <si>
+    <t>0.00604989</t>
+  </si>
+  <si>
+    <t>0.00621166</t>
+  </si>
+  <si>
+    <t>0.00608704</t>
+  </si>
+  <si>
+    <t>0.00615804</t>
+  </si>
+  <si>
+    <t>0.883022</t>
+  </si>
+  <si>
+    <t>0.90919</t>
+  </si>
+  <si>
+    <t>0.93961</t>
+  </si>
+  <si>
+    <t>0.890228</t>
+  </si>
+  <si>
+    <t>0.925595</t>
+  </si>
+  <si>
+    <t>0.530253</t>
+  </si>
+  <si>
+    <t>0.872805</t>
+  </si>
+  <si>
+    <t>0.919069</t>
+  </si>
+  <si>
+    <t>0.847295</t>
+  </si>
+  <si>
     <t>0.864773</t>
   </si>
   <si>
+    <t>0.86623</t>
+  </si>
+  <si>
+    <t>0.483665</t>
+  </si>
+  <si>
+    <t>0.508602</t>
+  </si>
+  <si>
+    <t>0.541255</t>
+  </si>
+  <si>
+    <t>0.44328</t>
+  </si>
+  <si>
+    <t>0.628857</t>
+  </si>
+  <si>
+    <t>0.467647</t>
+  </si>
+  <si>
+    <t>0.202155</t>
+  </si>
+  <si>
+    <t>0.665578</t>
+  </si>
+  <si>
+    <t>0.67272</t>
+  </si>
+  <si>
+    <t>0.600679</t>
+  </si>
+  <si>
+    <t>0.596651</t>
+  </si>
+  <si>
+    <t>0.609442</t>
+  </si>
+  <si>
+    <t>0.571006</t>
+  </si>
+  <si>
+    <t>0.646477</t>
+  </si>
+  <si>
+    <t>0.960269</t>
+  </si>
+  <si>
+    <t>0.927054</t>
+  </si>
+  <si>
+    <t>0.936408</t>
+  </si>
+  <si>
+    <t>0.981999</t>
+  </si>
+  <si>
+    <t>0.964312</t>
+  </si>
+  <si>
+    <t>0.917774</t>
+  </si>
+  <si>
+    <t>0.952695</t>
+  </si>
+  <si>
+    <t>1.01073</t>
+  </si>
+  <si>
+    <t>0.904748</t>
+  </si>
+  <si>
+    <t>0.972778</t>
+  </si>
+  <si>
+    <t>0.928227</t>
+  </si>
+  <si>
+    <t>0.541439</t>
+  </si>
+  <si>
+    <t>0.577319</t>
+  </si>
+  <si>
+    <t>0.554466</t>
+  </si>
+  <si>
+    <t>0.550169</t>
+  </si>
+  <si>
+    <t>0.448045</t>
+  </si>
+  <si>
+    <t>0.621265</t>
+  </si>
+  <si>
+    <t>0.600083</t>
+  </si>
+  <si>
+    <t>0.58606</t>
+  </si>
+  <si>
+    <t>0.63454</t>
+  </si>
+  <si>
+    <t>0.640932</t>
+  </si>
+  <si>
+    <t>0.591774</t>
+  </si>
+  <si>
+    <t>0.602142</t>
+  </si>
+  <si>
+    <t>0.607453</t>
+  </si>
+  <si>
+    <t>0.624121</t>
+  </si>
+  <si>
+    <t>0.983711</t>
+  </si>
+  <si>
+    <t>0.987239</t>
+  </si>
+  <si>
+    <t>0.942279</t>
+  </si>
+  <si>
+    <t>1.01348</t>
+  </si>
+  <si>
+    <t>0.923941</t>
+  </si>
+  <si>
+    <t>1.01156</t>
+  </si>
+  <si>
+    <t>0.95801</t>
+  </si>
+  <si>
+    <t>1.06008</t>
+  </si>
+  <si>
+    <t>1.05009</t>
+  </si>
+  <si>
+    <t>1.00518</t>
+  </si>
+  <si>
+    <t>0.948572</t>
+  </si>
+  <si>
+    <t>0.968964</t>
+  </si>
+  <si>
+    <t>1.04765</t>
+  </si>
+  <si>
+    <t>4.41854</t>
+  </si>
+  <si>
+    <t>4.43321</t>
+  </si>
+  <si>
+    <t>4.41993</t>
+  </si>
+  <si>
+    <t>4.43207</t>
+  </si>
+  <si>
+    <t>4.4164</t>
+  </si>
+  <si>
+    <t>14.6231</t>
+  </si>
+  <si>
+    <t>4.40458</t>
+  </si>
+  <si>
+    <t>4.43031</t>
+  </si>
+  <si>
+    <t>4.42639</t>
+  </si>
+  <si>
     <t>4.40219</t>
   </si>
   <si>
+    <t>4.48849</t>
+  </si>
+  <si>
+    <t>44.8771</t>
+  </si>
+  <si>
+    <t>47.5849</t>
+  </si>
+  <si>
+    <t>45.8567</t>
+  </si>
+  <si>
+    <t>41.0087</t>
+  </si>
+  <si>
+    <t>7.15036</t>
+  </si>
+  <si>
+    <t>45.7246</t>
+  </si>
+  <si>
+    <t>46.9901</t>
+  </si>
+  <si>
+    <t>26.864</t>
+  </si>
+  <si>
+    <t>32.6696</t>
+  </si>
+  <si>
+    <t>24.9678</t>
+  </si>
+  <si>
+    <t>26.5297</t>
+  </si>
+  <si>
+    <t>32.542</t>
+  </si>
+  <si>
+    <t>25.7151</t>
+  </si>
+  <si>
+    <t>34.7205</t>
+  </si>
+  <si>
+    <t>4.34859</t>
+  </si>
+  <si>
+    <t>4.35086</t>
+  </si>
+  <si>
+    <t>4.33074</t>
+  </si>
+  <si>
+    <t>4.33396</t>
+  </si>
+  <si>
+    <t>4.34964</t>
+  </si>
+  <si>
+    <t>4.34603</t>
+  </si>
+  <si>
+    <t>4.34757</t>
+  </si>
+  <si>
+    <t>4.34741</t>
+  </si>
+  <si>
+    <t>4.33884</t>
+  </si>
+  <si>
+    <t>4.35009</t>
+  </si>
+  <si>
+    <t>4.43237</t>
+  </si>
+  <si>
+    <t>14.2899</t>
+  </si>
+  <si>
+    <t>14.3882</t>
+  </si>
+  <si>
+    <t>14.4547</t>
+  </si>
+  <si>
+    <t>14.3773</t>
+  </si>
+  <si>
+    <t>45.8588</t>
+  </si>
+  <si>
+    <t>14.2309</t>
+  </si>
+  <si>
+    <t>22.6107</t>
+  </si>
+  <si>
+    <t>20.8481</t>
+  </si>
+  <si>
+    <t>7.23127</t>
+  </si>
+  <si>
+    <t>7.3774</t>
+  </si>
+  <si>
+    <t>21.4469</t>
+  </si>
+  <si>
+    <t>29.8369</t>
+  </si>
+  <si>
+    <t>7.40094</t>
+  </si>
+  <si>
+    <t>7.26612</t>
+  </si>
+  <si>
+    <t>4.30924</t>
+  </si>
+  <si>
+    <t>4.29247</t>
+  </si>
+  <si>
+    <t>4.31277</t>
+  </si>
+  <si>
+    <t>4.31833</t>
+  </si>
+  <si>
+    <t>4.3338</t>
+  </si>
+  <si>
+    <t>4.34413</t>
+  </si>
+  <si>
+    <t>4.30912</t>
+  </si>
+  <si>
+    <t>4.38175</t>
+  </si>
+  <si>
+    <t>4.38049</t>
+  </si>
+  <si>
+    <t>4.38127</t>
+  </si>
+  <si>
+    <t>4.28054</t>
+  </si>
+  <si>
+    <t>4.38099</t>
+  </si>
+  <si>
+    <t>4.37977</t>
+  </si>
+  <si>
+    <t>13.3401</t>
+  </si>
+  <si>
+    <t>13.3521</t>
+  </si>
+  <si>
+    <t>13.3774</t>
+  </si>
+  <si>
+    <t>13.3952</t>
+  </si>
+  <si>
+    <t>13.5086</t>
+  </si>
+  <si>
+    <t>14.3816</t>
+  </si>
+  <si>
+    <t>13.586</t>
+  </si>
+  <si>
+    <t>13.3657</t>
+  </si>
+  <si>
+    <t>13.3356</t>
+  </si>
+  <si>
     <t>13.3809</t>
   </si>
   <si>
+    <t>13.3855</t>
+  </si>
+  <si>
+    <t>13.4629</t>
+  </si>
+  <si>
+    <t>13.4086</t>
+  </si>
+  <si>
+    <t>13.3634</t>
+  </si>
+  <si>
+    <t>13.4133</t>
+  </si>
+  <si>
+    <t>12.0888</t>
+  </si>
+  <si>
+    <t>13.5701</t>
+  </si>
+  <si>
+    <t>13.5079</t>
+  </si>
+  <si>
+    <t>9.92652</t>
+  </si>
+  <si>
+    <t>10.0506</t>
+  </si>
+  <si>
+    <t>10.0582</t>
+  </si>
+  <si>
+    <t>9.47778</t>
+  </si>
+  <si>
+    <t>10.0798</t>
+  </si>
+  <si>
+    <t>10.1025</t>
+  </si>
+  <si>
+    <t>10.068</t>
+  </si>
+  <si>
+    <t>13.2542</t>
+  </si>
+  <si>
+    <t>13.2754</t>
+  </si>
+  <si>
+    <t>13.2665</t>
+  </si>
+  <si>
+    <t>13.2663</t>
+  </si>
+  <si>
+    <t>13.2618</t>
+  </si>
+  <si>
+    <t>13.2655</t>
+  </si>
+  <si>
+    <t>13.2823</t>
+  </si>
+  <si>
+    <t>13.2622</t>
+  </si>
+  <si>
+    <t>13.2733</t>
+  </si>
+  <si>
+    <t>13.2687</t>
+  </si>
+  <si>
+    <t>13.3728</t>
+  </si>
+  <si>
+    <t>14.1275</t>
+  </si>
+  <si>
+    <t>14.2444</t>
+  </si>
+  <si>
+    <t>14.1667</t>
+  </si>
+  <si>
+    <t>14.2778</t>
+  </si>
+  <si>
+    <t>13.3404</t>
+  </si>
+  <si>
+    <t>14.2672</t>
+  </si>
+  <si>
+    <t>14.2896</t>
+  </si>
+  <si>
+    <t>12.2643</t>
+  </si>
+  <si>
+    <t>12.6495</t>
+  </si>
+  <si>
+    <t>12.1506</t>
+  </si>
+  <si>
+    <t>12.2702</t>
+  </si>
+  <si>
+    <t>9.10119</t>
+  </si>
+  <si>
+    <t>12.3202</t>
+  </si>
+  <si>
+    <t>12.2566</t>
+  </si>
+  <si>
+    <t>13.4234</t>
+  </si>
+  <si>
+    <t>13.4351</t>
+  </si>
+  <si>
+    <t>13.4378</t>
+  </si>
+  <si>
+    <t>13.4458</t>
+  </si>
+  <si>
+    <t>13.2683</t>
+  </si>
+  <si>
+    <t>13.4065</t>
+  </si>
+  <si>
+    <t>13.4093</t>
+  </si>
+  <si>
+    <t>13.4892</t>
+  </si>
+  <si>
+    <t>13.5018</t>
+  </si>
+  <si>
+    <t>13.4853</t>
+  </si>
+  <si>
+    <t>13.4073</t>
+  </si>
+  <si>
+    <t>13.4821</t>
+  </si>
+  <si>
+    <t>13.4996</t>
+  </si>
+  <si>
+    <t>0.065902</t>
+  </si>
+  <si>
+    <t>0.0686633</t>
+  </si>
+  <si>
+    <t>0.0471317</t>
+  </si>
+  <si>
+    <t>0.0541594</t>
+  </si>
+  <si>
+    <t>0.057861</t>
+  </si>
+  <si>
+    <t>0.0898998</t>
+  </si>
+  <si>
+    <t>0.0651376</t>
+  </si>
+  <si>
+    <t>0.0506962</t>
+  </si>
+  <si>
+    <t>0.0532801</t>
+  </si>
+  <si>
     <t>0.0483595</t>
   </si>
   <si>
+    <t>0.059747</t>
+  </si>
+  <si>
+    <t>0.0867038</t>
+  </si>
+  <si>
+    <t>0.0817343</t>
+  </si>
+  <si>
+    <t>0.0824877</t>
+  </si>
+  <si>
+    <t>0.0785349</t>
+  </si>
+  <si>
+    <t>0.0489876</t>
+  </si>
+  <si>
+    <t>0.0755164</t>
+  </si>
+  <si>
+    <t>0.0851568</t>
+  </si>
+  <si>
+    <t>0.0572134</t>
+  </si>
+  <si>
+    <t>0.0586034</t>
+  </si>
+  <si>
+    <t>0.0608941</t>
+  </si>
+  <si>
+    <t>0.0593803</t>
+  </si>
+  <si>
+    <t>0.0687748</t>
+  </si>
+  <si>
+    <t>0.0574288</t>
+  </si>
+  <si>
+    <t>0.0555312</t>
+  </si>
+  <si>
+    <t>0.0594813</t>
+  </si>
+  <si>
+    <t>0.0646252</t>
+  </si>
+  <si>
+    <t>0.0534077</t>
+  </si>
+  <si>
+    <t>0.0529704</t>
+  </si>
+  <si>
+    <t>0.0694952</t>
+  </si>
+  <si>
+    <t>0.0638532</t>
+  </si>
+  <si>
+    <t>0.0680209</t>
+  </si>
+  <si>
+    <t>0.0593358</t>
+  </si>
+  <si>
+    <t>0.0836911</t>
+  </si>
+  <si>
+    <t>0.0738131</t>
+  </si>
+  <si>
+    <t>0.0518638</t>
+  </si>
+  <si>
+    <t>0.0768673</t>
+  </si>
+  <si>
+    <t>0.0884253</t>
+  </si>
+  <si>
+    <t>0.0759503</t>
+  </si>
+  <si>
+    <t>0.0901468</t>
+  </si>
+  <si>
+    <t>0.0896366</t>
+  </si>
+  <si>
+    <t>0.0747794</t>
+  </si>
+  <si>
+    <t>0.0784233</t>
+  </si>
+  <si>
+    <t>0.0590298</t>
+  </si>
+  <si>
+    <t>0.0520531</t>
+  </si>
+  <si>
+    <t>0.0673917</t>
+  </si>
+  <si>
+    <t>0.0612424</t>
+  </si>
+  <si>
+    <t>0.0538587</t>
+  </si>
+  <si>
+    <t>0.0681198</t>
+  </si>
+  <si>
+    <t>0.0662037</t>
+  </si>
+  <si>
+    <t>0.05989</t>
+  </si>
+  <si>
+    <t>0.0775569</t>
+  </si>
+  <si>
+    <t>0.0556089</t>
+  </si>
+  <si>
+    <t>0.0585779</t>
+  </si>
+  <si>
+    <t>0.0604882</t>
+  </si>
+  <si>
+    <t>0.0618704</t>
+  </si>
+  <si>
+    <t>0.0658557</t>
+  </si>
+  <si>
+    <t>0.0529544</t>
+  </si>
+  <si>
+    <t>0.0552801</t>
+  </si>
+  <si>
+    <t>0.0626568</t>
+  </si>
+  <si>
+    <t>0.0546668</t>
+  </si>
+  <si>
+    <t>0.0584899</t>
+  </si>
+  <si>
+    <t>0.0510075</t>
+  </si>
+  <si>
+    <t>12.2731</t>
+  </si>
+  <si>
+    <t>12.4508</t>
+  </si>
+  <si>
+    <t>13.8698</t>
+  </si>
+  <si>
+    <t>12.3815</t>
+  </si>
+  <si>
+    <t>12.4902</t>
+  </si>
+  <si>
+    <t>11.1907</t>
+  </si>
+  <si>
+    <t>12.021</t>
+  </si>
+  <si>
+    <t>12.5698</t>
+  </si>
+  <si>
+    <t>12.3845</t>
+  </si>
+  <si>
     <t>12.4883</t>
+  </si>
+  <si>
+    <t>12.4978</t>
+  </si>
+  <si>
+    <t>11.2871</t>
+  </si>
+  <si>
+    <t>11.5354</t>
+  </si>
+  <si>
+    <t>11.3948</t>
+  </si>
+  <si>
+    <t>11.8038</t>
+  </si>
+  <si>
+    <t>12.5616</t>
+  </si>
+  <si>
+    <t>11.4661</t>
+  </si>
+  <si>
+    <t>11.0967</t>
+  </si>
+  <si>
+    <t>12.3692</t>
+  </si>
+  <si>
+    <t>12.1353</t>
+  </si>
+  <si>
+    <t>12.2076</t>
+  </si>
+  <si>
+    <t>12.5014</t>
+  </si>
+  <si>
+    <t>12.5325</t>
+  </si>
+  <si>
+    <t>12.4504</t>
+  </si>
+  <si>
+    <t>12.136</t>
+  </si>
+  <si>
+    <t>12.2583</t>
+  </si>
+  <si>
+    <t>12.4423</t>
+  </si>
+  <si>
+    <t>12.53</t>
+  </si>
+  <si>
+    <t>12.4387</t>
+  </si>
+  <si>
+    <t>12.8523</t>
+  </si>
+  <si>
+    <t>12.2021</t>
+  </si>
+  <si>
+    <t>12.4695</t>
+  </si>
+  <si>
+    <t>12.4197</t>
+  </si>
+  <si>
+    <t>12.1457</t>
+  </si>
+  <si>
+    <t>12.4827</t>
+  </si>
+  <si>
+    <t>12.4464</t>
+  </si>
+  <si>
+    <t>12.2987</t>
+  </si>
+  <si>
+    <t>11.9066</t>
+  </si>
+  <si>
+    <t>12.4534</t>
+  </si>
+  <si>
+    <t>11.7204</t>
+  </si>
+  <si>
+    <t>10.8201</t>
+  </si>
+  <si>
+    <t>12.082</t>
+  </si>
+  <si>
+    <t>11.1072</t>
+  </si>
+  <si>
+    <t>12.8473</t>
+  </si>
+  <si>
+    <t>12.9553</t>
+  </si>
+  <si>
+    <t>12.1063</t>
+  </si>
+  <si>
+    <t>11.9958</t>
+  </si>
+  <si>
+    <t>12.6909</t>
+  </si>
+  <si>
+    <t>12.5791</t>
+  </si>
+  <si>
+    <t>12.6014</t>
+  </si>
+  <si>
+    <t>12.576</t>
+  </si>
+  <si>
+    <t>12.6956</t>
+  </si>
+  <si>
+    <t>12.2367</t>
+  </si>
+  <si>
+    <t>12.5969</t>
+  </si>
+  <si>
+    <t>12.3514</t>
+  </si>
+  <si>
+    <t>12.7471</t>
+  </si>
+  <si>
+    <t>12.2276</t>
+  </si>
+  <si>
+    <t>12.6193</t>
+  </si>
+  <si>
+    <t>12.3222</t>
+  </si>
+  <si>
+    <t>12.4027</t>
+  </si>
+  <si>
+    <t>12.4471</t>
+  </si>
+  <si>
+    <t>12.2924</t>
+  </si>
+  <si>
+    <t>12.8073</t>
   </si>
 </sst>
 </file>
@@ -431,7 +1961,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -474,31 +2004,2015 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F2" t="s">
+        <v>215</v>
+      </c>
+      <c r="G2" t="s">
+        <v>278</v>
+      </c>
+      <c r="H2" t="s">
+        <v>341</v>
+      </c>
+      <c r="I2" t="s">
+        <v>404</v>
+      </c>
+      <c r="J2" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E3" t="s">
+        <v>153</v>
+      </c>
+      <c r="F3" t="s">
+        <v>216</v>
+      </c>
+      <c r="G3" t="s">
+        <v>279</v>
+      </c>
+      <c r="H3" t="s">
+        <v>342</v>
+      </c>
+      <c r="I3" t="s">
+        <v>405</v>
+      </c>
+      <c r="J3" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E4" t="s">
+        <v>154</v>
+      </c>
+      <c r="F4" t="s">
+        <v>217</v>
+      </c>
+      <c r="G4" t="s">
+        <v>280</v>
+      </c>
+      <c r="H4" t="s">
+        <v>343</v>
+      </c>
+      <c r="I4" t="s">
+        <v>406</v>
+      </c>
+      <c r="J4" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E5" t="s">
+        <v>155</v>
+      </c>
+      <c r="F5" t="s">
+        <v>218</v>
+      </c>
+      <c r="G5" t="s">
+        <v>281</v>
+      </c>
+      <c r="H5" t="s">
+        <v>344</v>
+      </c>
+      <c r="I5" t="s">
+        <v>407</v>
+      </c>
+      <c r="J5" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E6" t="s">
+        <v>156</v>
+      </c>
+      <c r="F6" t="s">
+        <v>219</v>
+      </c>
+      <c r="G6" t="s">
+        <v>282</v>
+      </c>
+      <c r="H6" t="s">
+        <v>345</v>
+      </c>
+      <c r="I6" t="s">
+        <v>408</v>
+      </c>
+      <c r="J6" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F7" t="s">
+        <v>220</v>
+      </c>
+      <c r="G7" t="s">
+        <v>283</v>
+      </c>
+      <c r="H7" t="s">
+        <v>346</v>
+      </c>
+      <c r="I7" t="s">
+        <v>409</v>
+      </c>
+      <c r="J7" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E8" t="s">
+        <v>158</v>
+      </c>
+      <c r="F8" t="s">
+        <v>221</v>
+      </c>
+      <c r="G8" t="s">
+        <v>284</v>
+      </c>
+      <c r="H8" t="s">
+        <v>347</v>
+      </c>
+      <c r="I8" t="s">
+        <v>410</v>
+      </c>
+      <c r="J8" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" t="s">
+        <v>96</v>
+      </c>
+      <c r="E9" t="s">
+        <v>159</v>
+      </c>
+      <c r="F9" t="s">
+        <v>222</v>
+      </c>
+      <c r="G9" t="s">
+        <v>285</v>
+      </c>
+      <c r="H9" t="s">
+        <v>348</v>
+      </c>
+      <c r="I9" t="s">
+        <v>411</v>
+      </c>
+      <c r="J9" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" t="s">
+        <v>97</v>
+      </c>
+      <c r="E10" t="s">
+        <v>160</v>
+      </c>
+      <c r="F10" t="s">
+        <v>223</v>
+      </c>
+      <c r="G10" t="s">
+        <v>286</v>
+      </c>
+      <c r="H10" t="s">
+        <v>349</v>
+      </c>
+      <c r="I10" t="s">
+        <v>412</v>
+      </c>
+      <c r="J10" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" t="s">
+        <v>98</v>
+      </c>
+      <c r="E11" t="s">
+        <v>161</v>
+      </c>
+      <c r="F11" t="s">
+        <v>224</v>
+      </c>
+      <c r="G11" t="s">
+        <v>287</v>
+      </c>
+      <c r="H11" t="s">
+        <v>350</v>
+      </c>
+      <c r="I11" t="s">
+        <v>413</v>
+      </c>
+      <c r="J11" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E12" t="s">
+        <v>162</v>
+      </c>
+      <c r="F12" t="s">
+        <v>225</v>
+      </c>
+      <c r="G12" t="s">
+        <v>288</v>
+      </c>
+      <c r="H12" t="s">
+        <v>351</v>
+      </c>
+      <c r="I12" t="s">
+        <v>414</v>
+      </c>
+      <c r="J12" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" t="s">
+        <v>100</v>
+      </c>
+      <c r="E13" t="s">
+        <v>163</v>
+      </c>
+      <c r="F13" t="s">
+        <v>226</v>
+      </c>
+      <c r="G13" t="s">
+        <v>289</v>
+      </c>
+      <c r="H13" t="s">
+        <v>352</v>
+      </c>
+      <c r="I13" t="s">
+        <v>415</v>
+      </c>
+      <c r="J13" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" t="s">
+        <v>101</v>
+      </c>
+      <c r="E14" t="s">
+        <v>164</v>
+      </c>
+      <c r="F14" t="s">
+        <v>227</v>
+      </c>
+      <c r="G14" t="s">
+        <v>290</v>
+      </c>
+      <c r="H14" t="s">
+        <v>353</v>
+      </c>
+      <c r="I14" t="s">
+        <v>416</v>
+      </c>
+      <c r="J14" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" t="s">
+        <v>102</v>
+      </c>
+      <c r="E15" t="s">
+        <v>165</v>
+      </c>
+      <c r="F15" t="s">
+        <v>228</v>
+      </c>
+      <c r="G15" t="s">
+        <v>291</v>
+      </c>
+      <c r="H15" t="s">
+        <v>354</v>
+      </c>
+      <c r="I15" t="s">
+        <v>417</v>
+      </c>
+      <c r="J15" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" t="s">
+        <v>103</v>
+      </c>
+      <c r="E16" t="s">
+        <v>166</v>
+      </c>
+      <c r="F16" t="s">
+        <v>229</v>
+      </c>
+      <c r="G16" t="s">
+        <v>292</v>
+      </c>
+      <c r="H16" t="s">
+        <v>355</v>
+      </c>
+      <c r="I16" t="s">
+        <v>418</v>
+      </c>
+      <c r="J16" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" t="s">
+        <v>104</v>
+      </c>
+      <c r="E17" t="s">
+        <v>167</v>
+      </c>
+      <c r="F17" t="s">
+        <v>230</v>
+      </c>
+      <c r="G17" t="s">
+        <v>293</v>
+      </c>
+      <c r="H17" t="s">
+        <v>356</v>
+      </c>
+      <c r="I17" t="s">
+        <v>419</v>
+      </c>
+      <c r="J17" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" t="s">
+        <v>105</v>
+      </c>
+      <c r="E18" t="s">
+        <v>168</v>
+      </c>
+      <c r="F18" t="s">
+        <v>231</v>
+      </c>
+      <c r="G18" t="s">
+        <v>294</v>
+      </c>
+      <c r="H18" t="s">
+        <v>357</v>
+      </c>
+      <c r="I18" t="s">
+        <v>420</v>
+      </c>
+      <c r="J18" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" t="s">
+        <v>106</v>
+      </c>
+      <c r="E19" t="s">
+        <v>169</v>
+      </c>
+      <c r="F19" t="s">
+        <v>232</v>
+      </c>
+      <c r="G19" t="s">
+        <v>295</v>
+      </c>
+      <c r="H19" t="s">
+        <v>358</v>
+      </c>
+      <c r="I19" t="s">
+        <v>421</v>
+      </c>
+      <c r="J19" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" t="s">
+        <v>107</v>
+      </c>
+      <c r="E20" t="s">
+        <v>170</v>
+      </c>
+      <c r="F20" t="s">
+        <v>233</v>
+      </c>
+      <c r="G20" t="s">
+        <v>296</v>
+      </c>
+      <c r="H20" t="s">
+        <v>359</v>
+      </c>
+      <c r="I20" t="s">
+        <v>422</v>
+      </c>
+      <c r="J20" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" t="s">
+        <v>108</v>
+      </c>
+      <c r="E21" t="s">
+        <v>171</v>
+      </c>
+      <c r="F21" t="s">
+        <v>234</v>
+      </c>
+      <c r="G21" t="s">
+        <v>297</v>
+      </c>
+      <c r="H21" t="s">
+        <v>360</v>
+      </c>
+      <c r="I21" t="s">
+        <v>423</v>
+      </c>
+      <c r="J21" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" t="s">
+        <v>109</v>
+      </c>
+      <c r="E22" t="s">
+        <v>172</v>
+      </c>
+      <c r="F22" t="s">
+        <v>235</v>
+      </c>
+      <c r="G22" t="s">
+        <v>298</v>
+      </c>
+      <c r="H22" t="s">
+        <v>361</v>
+      </c>
+      <c r="I22" t="s">
+        <v>424</v>
+      </c>
+      <c r="J22" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" t="s">
+        <v>110</v>
+      </c>
+      <c r="E23" t="s">
+        <v>173</v>
+      </c>
+      <c r="F23" t="s">
+        <v>236</v>
+      </c>
+      <c r="G23" t="s">
+        <v>299</v>
+      </c>
+      <c r="H23" t="s">
+        <v>362</v>
+      </c>
+      <c r="I23" t="s">
+        <v>425</v>
+      </c>
+      <c r="J23" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E24" t="s">
+        <v>174</v>
+      </c>
+      <c r="F24" t="s">
+        <v>237</v>
+      </c>
+      <c r="G24" t="s">
+        <v>300</v>
+      </c>
+      <c r="H24" t="s">
+        <v>363</v>
+      </c>
+      <c r="I24" t="s">
+        <v>426</v>
+      </c>
+      <c r="J24" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" t="s">
+        <v>112</v>
+      </c>
+      <c r="E25" t="s">
+        <v>175</v>
+      </c>
+      <c r="F25" t="s">
+        <v>238</v>
+      </c>
+      <c r="G25" t="s">
+        <v>301</v>
+      </c>
+      <c r="H25" t="s">
+        <v>364</v>
+      </c>
+      <c r="I25" t="s">
+        <v>427</v>
+      </c>
+      <c r="J25" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" t="s">
+        <v>113</v>
+      </c>
+      <c r="E26" t="s">
+        <v>176</v>
+      </c>
+      <c r="F26" t="s">
+        <v>239</v>
+      </c>
+      <c r="G26" t="s">
+        <v>302</v>
+      </c>
+      <c r="H26" t="s">
+        <v>365</v>
+      </c>
+      <c r="I26" t="s">
+        <v>428</v>
+      </c>
+      <c r="J26" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" t="s">
         <v>13</v>
       </c>
-      <c r="E2" t="s">
+      <c r="B27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27" t="s">
+        <v>114</v>
+      </c>
+      <c r="E27" t="s">
+        <v>177</v>
+      </c>
+      <c r="F27" t="s">
+        <v>240</v>
+      </c>
+      <c r="G27" t="s">
+        <v>303</v>
+      </c>
+      <c r="H27" t="s">
+        <v>366</v>
+      </c>
+      <c r="I27" t="s">
+        <v>429</v>
+      </c>
+      <c r="J27" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" t="s">
+        <v>115</v>
+      </c>
+      <c r="E28" t="s">
+        <v>178</v>
+      </c>
+      <c r="F28" t="s">
+        <v>241</v>
+      </c>
+      <c r="G28" t="s">
+        <v>304</v>
+      </c>
+      <c r="H28" t="s">
+        <v>367</v>
+      </c>
+      <c r="I28" t="s">
+        <v>430</v>
+      </c>
+      <c r="J28" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" t="s">
+        <v>53</v>
+      </c>
+      <c r="D29" t="s">
+        <v>116</v>
+      </c>
+      <c r="E29" t="s">
+        <v>179</v>
+      </c>
+      <c r="F29" t="s">
+        <v>242</v>
+      </c>
+      <c r="G29" t="s">
+        <v>305</v>
+      </c>
+      <c r="H29" t="s">
+        <v>368</v>
+      </c>
+      <c r="I29" t="s">
+        <v>431</v>
+      </c>
+      <c r="J29" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" t="s">
+        <v>54</v>
+      </c>
+      <c r="D30" t="s">
+        <v>117</v>
+      </c>
+      <c r="E30" t="s">
+        <v>180</v>
+      </c>
+      <c r="F30" t="s">
+        <v>243</v>
+      </c>
+      <c r="G30" t="s">
+        <v>306</v>
+      </c>
+      <c r="H30" t="s">
+        <v>369</v>
+      </c>
+      <c r="I30" t="s">
+        <v>432</v>
+      </c>
+      <c r="J30" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" t="s">
+        <v>55</v>
+      </c>
+      <c r="D31" t="s">
+        <v>118</v>
+      </c>
+      <c r="E31" t="s">
+        <v>181</v>
+      </c>
+      <c r="F31" t="s">
+        <v>244</v>
+      </c>
+      <c r="G31" t="s">
+        <v>307</v>
+      </c>
+      <c r="H31" t="s">
+        <v>370</v>
+      </c>
+      <c r="I31" t="s">
+        <v>433</v>
+      </c>
+      <c r="J31" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" t="s">
+        <v>56</v>
+      </c>
+      <c r="D32" t="s">
+        <v>119</v>
+      </c>
+      <c r="E32" t="s">
+        <v>182</v>
+      </c>
+      <c r="F32" t="s">
+        <v>245</v>
+      </c>
+      <c r="G32" t="s">
+        <v>308</v>
+      </c>
+      <c r="H32" t="s">
+        <v>371</v>
+      </c>
+      <c r="I32" t="s">
+        <v>434</v>
+      </c>
+      <c r="J32" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" t="s">
+        <v>57</v>
+      </c>
+      <c r="D33" t="s">
+        <v>120</v>
+      </c>
+      <c r="E33" t="s">
+        <v>183</v>
+      </c>
+      <c r="F33" t="s">
+        <v>246</v>
+      </c>
+      <c r="G33" t="s">
+        <v>309</v>
+      </c>
+      <c r="H33" t="s">
+        <v>372</v>
+      </c>
+      <c r="I33" t="s">
+        <v>435</v>
+      </c>
+      <c r="J33" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" t="s">
+        <v>58</v>
+      </c>
+      <c r="D34" t="s">
+        <v>121</v>
+      </c>
+      <c r="E34" t="s">
+        <v>184</v>
+      </c>
+      <c r="F34" t="s">
+        <v>247</v>
+      </c>
+      <c r="G34" t="s">
+        <v>310</v>
+      </c>
+      <c r="H34" t="s">
+        <v>373</v>
+      </c>
+      <c r="I34" t="s">
+        <v>436</v>
+      </c>
+      <c r="J34" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" t="s">
+        <v>13</v>
+      </c>
+      <c r="B35" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35" t="s">
+        <v>59</v>
+      </c>
+      <c r="D35" t="s">
+        <v>122</v>
+      </c>
+      <c r="E35" t="s">
+        <v>185</v>
+      </c>
+      <c r="F35" t="s">
+        <v>248</v>
+      </c>
+      <c r="G35" t="s">
+        <v>311</v>
+      </c>
+      <c r="H35" t="s">
+        <v>374</v>
+      </c>
+      <c r="I35" t="s">
+        <v>437</v>
+      </c>
+      <c r="J35" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36" t="s">
+        <v>60</v>
+      </c>
+      <c r="D36" t="s">
+        <v>123</v>
+      </c>
+      <c r="E36" t="s">
+        <v>186</v>
+      </c>
+      <c r="F36" t="s">
+        <v>249</v>
+      </c>
+      <c r="G36" t="s">
+        <v>312</v>
+      </c>
+      <c r="H36" t="s">
+        <v>375</v>
+      </c>
+      <c r="I36" t="s">
+        <v>438</v>
+      </c>
+      <c r="J36" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" t="s">
+        <v>25</v>
+      </c>
+      <c r="C37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D37" t="s">
+        <v>124</v>
+      </c>
+      <c r="E37" t="s">
+        <v>187</v>
+      </c>
+      <c r="F37" t="s">
+        <v>250</v>
+      </c>
+      <c r="G37" t="s">
+        <v>313</v>
+      </c>
+      <c r="H37" t="s">
+        <v>376</v>
+      </c>
+      <c r="I37" t="s">
+        <v>439</v>
+      </c>
+      <c r="J37" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" t="s">
+        <v>62</v>
+      </c>
+      <c r="D38" t="s">
+        <v>125</v>
+      </c>
+      <c r="E38" t="s">
+        <v>188</v>
+      </c>
+      <c r="F38" t="s">
+        <v>251</v>
+      </c>
+      <c r="G38" t="s">
+        <v>314</v>
+      </c>
+      <c r="H38" t="s">
+        <v>377</v>
+      </c>
+      <c r="I38" t="s">
+        <v>440</v>
+      </c>
+      <c r="J38" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" t="s">
+        <v>11</v>
+      </c>
+      <c r="B39" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39" t="s">
+        <v>63</v>
+      </c>
+      <c r="D39" t="s">
+        <v>126</v>
+      </c>
+      <c r="E39" t="s">
+        <v>189</v>
+      </c>
+      <c r="F39" t="s">
+        <v>252</v>
+      </c>
+      <c r="G39" t="s">
+        <v>315</v>
+      </c>
+      <c r="H39" t="s">
+        <v>378</v>
+      </c>
+      <c r="I39" t="s">
+        <v>441</v>
+      </c>
+      <c r="J39" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40" t="s">
+        <v>64</v>
+      </c>
+      <c r="D40" t="s">
+        <v>127</v>
+      </c>
+      <c r="E40" t="s">
+        <v>190</v>
+      </c>
+      <c r="F40" t="s">
+        <v>253</v>
+      </c>
+      <c r="G40" t="s">
+        <v>316</v>
+      </c>
+      <c r="H40" t="s">
+        <v>379</v>
+      </c>
+      <c r="I40" t="s">
+        <v>442</v>
+      </c>
+      <c r="J40" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" t="s">
+        <v>65</v>
+      </c>
+      <c r="D41" t="s">
+        <v>128</v>
+      </c>
+      <c r="E41" t="s">
+        <v>191</v>
+      </c>
+      <c r="F41" t="s">
+        <v>254</v>
+      </c>
+      <c r="G41" t="s">
+        <v>317</v>
+      </c>
+      <c r="H41" t="s">
+        <v>380</v>
+      </c>
+      <c r="I41" t="s">
+        <v>443</v>
+      </c>
+      <c r="J41" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" t="s">
+        <v>12</v>
+      </c>
+      <c r="B42" t="s">
+        <v>18</v>
+      </c>
+      <c r="C42" t="s">
+        <v>66</v>
+      </c>
+      <c r="D42" t="s">
+        <v>129</v>
+      </c>
+      <c r="E42" t="s">
+        <v>192</v>
+      </c>
+      <c r="F42" t="s">
+        <v>255</v>
+      </c>
+      <c r="G42" t="s">
+        <v>318</v>
+      </c>
+      <c r="H42" t="s">
+        <v>381</v>
+      </c>
+      <c r="I42" t="s">
+        <v>444</v>
+      </c>
+      <c r="J42" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" t="s">
+        <v>11</v>
+      </c>
+      <c r="B43" t="s">
+        <v>24</v>
+      </c>
+      <c r="C43" t="s">
+        <v>67</v>
+      </c>
+      <c r="D43" t="s">
+        <v>130</v>
+      </c>
+      <c r="E43" t="s">
+        <v>193</v>
+      </c>
+      <c r="F43" t="s">
+        <v>256</v>
+      </c>
+      <c r="G43" t="s">
+        <v>319</v>
+      </c>
+      <c r="H43" t="s">
+        <v>382</v>
+      </c>
+      <c r="I43" t="s">
+        <v>445</v>
+      </c>
+      <c r="J43" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" t="s">
+        <v>11</v>
+      </c>
+      <c r="B44" t="s">
+        <v>21</v>
+      </c>
+      <c r="C44" t="s">
+        <v>68</v>
+      </c>
+      <c r="D44" t="s">
+        <v>131</v>
+      </c>
+      <c r="E44" t="s">
+        <v>194</v>
+      </c>
+      <c r="F44" t="s">
+        <v>257</v>
+      </c>
+      <c r="G44" t="s">
+        <v>320</v>
+      </c>
+      <c r="H44" t="s">
+        <v>383</v>
+      </c>
+      <c r="I44" t="s">
+        <v>446</v>
+      </c>
+      <c r="J44" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" t="s">
+        <v>11</v>
+      </c>
+      <c r="B45" t="s">
+        <v>16</v>
+      </c>
+      <c r="C45" t="s">
+        <v>69</v>
+      </c>
+      <c r="D45" t="s">
+        <v>132</v>
+      </c>
+      <c r="E45" t="s">
+        <v>195</v>
+      </c>
+      <c r="F45" t="s">
+        <v>258</v>
+      </c>
+      <c r="G45" t="s">
+        <v>321</v>
+      </c>
+      <c r="H45" t="s">
+        <v>384</v>
+      </c>
+      <c r="I45" t="s">
+        <v>447</v>
+      </c>
+      <c r="J45" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" t="s">
+        <v>11</v>
+      </c>
+      <c r="B46" t="s">
+        <v>25</v>
+      </c>
+      <c r="C46" t="s">
+        <v>70</v>
+      </c>
+      <c r="D46" t="s">
+        <v>133</v>
+      </c>
+      <c r="E46" t="s">
+        <v>196</v>
+      </c>
+      <c r="F46" t="s">
+        <v>259</v>
+      </c>
+      <c r="G46" t="s">
+        <v>322</v>
+      </c>
+      <c r="H46" t="s">
+        <v>385</v>
+      </c>
+      <c r="I46" t="s">
+        <v>448</v>
+      </c>
+      <c r="J46" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" t="s">
+        <v>11</v>
+      </c>
+      <c r="B47" t="s">
+        <v>17</v>
+      </c>
+      <c r="C47" t="s">
+        <v>71</v>
+      </c>
+      <c r="D47" t="s">
+        <v>134</v>
+      </c>
+      <c r="E47" t="s">
+        <v>197</v>
+      </c>
+      <c r="F47" t="s">
+        <v>260</v>
+      </c>
+      <c r="G47" t="s">
+        <v>323</v>
+      </c>
+      <c r="H47" t="s">
+        <v>386</v>
+      </c>
+      <c r="I47" t="s">
+        <v>449</v>
+      </c>
+      <c r="J47" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" t="s">
+        <v>11</v>
+      </c>
+      <c r="B48" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" t="s">
+        <v>72</v>
+      </c>
+      <c r="D48" t="s">
+        <v>135</v>
+      </c>
+      <c r="E48" t="s">
+        <v>198</v>
+      </c>
+      <c r="F48" t="s">
+        <v>261</v>
+      </c>
+      <c r="G48" t="s">
+        <v>324</v>
+      </c>
+      <c r="H48" t="s">
+        <v>387</v>
+      </c>
+      <c r="I48" t="s">
+        <v>450</v>
+      </c>
+      <c r="J48" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" t="s">
+        <v>12</v>
+      </c>
+      <c r="B49" t="s">
+        <v>18</v>
+      </c>
+      <c r="C49" t="s">
+        <v>73</v>
+      </c>
+      <c r="D49" t="s">
+        <v>136</v>
+      </c>
+      <c r="E49" t="s">
+        <v>199</v>
+      </c>
+      <c r="F49" t="s">
+        <v>262</v>
+      </c>
+      <c r="G49" t="s">
+        <v>325</v>
+      </c>
+      <c r="H49" t="s">
+        <v>388</v>
+      </c>
+      <c r="I49" t="s">
+        <v>451</v>
+      </c>
+      <c r="J49" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" t="s">
+        <v>11</v>
+      </c>
+      <c r="B50" t="s">
+        <v>24</v>
+      </c>
+      <c r="C50" t="s">
+        <v>74</v>
+      </c>
+      <c r="D50" t="s">
+        <v>137</v>
+      </c>
+      <c r="E50" t="s">
+        <v>200</v>
+      </c>
+      <c r="F50" t="s">
+        <v>263</v>
+      </c>
+      <c r="G50" t="s">
+        <v>326</v>
+      </c>
+      <c r="H50" t="s">
+        <v>389</v>
+      </c>
+      <c r="I50" t="s">
+        <v>452</v>
+      </c>
+      <c r="J50" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" t="s">
+        <v>11</v>
+      </c>
+      <c r="B51" t="s">
+        <v>21</v>
+      </c>
+      <c r="C51" t="s">
+        <v>75</v>
+      </c>
+      <c r="D51" t="s">
+        <v>138</v>
+      </c>
+      <c r="E51" t="s">
+        <v>201</v>
+      </c>
+      <c r="F51" t="s">
+        <v>264</v>
+      </c>
+      <c r="G51" t="s">
+        <v>327</v>
+      </c>
+      <c r="H51" t="s">
+        <v>390</v>
+      </c>
+      <c r="I51" t="s">
+        <v>453</v>
+      </c>
+      <c r="J51" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" t="s">
         <v>14</v>
       </c>
-      <c r="F2" t="s">
+      <c r="B52" t="s">
+        <v>16</v>
+      </c>
+      <c r="C52" t="s">
+        <v>76</v>
+      </c>
+      <c r="D52" t="s">
+        <v>139</v>
+      </c>
+      <c r="E52" t="s">
+        <v>202</v>
+      </c>
+      <c r="F52" t="s">
+        <v>265</v>
+      </c>
+      <c r="G52" t="s">
+        <v>328</v>
+      </c>
+      <c r="H52" t="s">
+        <v>391</v>
+      </c>
+      <c r="I52" t="s">
+        <v>454</v>
+      </c>
+      <c r="J52" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B53" t="s">
+        <v>25</v>
+      </c>
+      <c r="C53" t="s">
+        <v>77</v>
+      </c>
+      <c r="D53" t="s">
+        <v>140</v>
+      </c>
+      <c r="E53" t="s">
+        <v>203</v>
+      </c>
+      <c r="F53" t="s">
+        <v>266</v>
+      </c>
+      <c r="G53" t="s">
+        <v>329</v>
+      </c>
+      <c r="H53" t="s">
+        <v>392</v>
+      </c>
+      <c r="I53" t="s">
+        <v>455</v>
+      </c>
+      <c r="J53" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" t="s">
+        <v>14</v>
+      </c>
+      <c r="B54" t="s">
+        <v>17</v>
+      </c>
+      <c r="C54" t="s">
+        <v>78</v>
+      </c>
+      <c r="D54" t="s">
+        <v>141</v>
+      </c>
+      <c r="E54" t="s">
+        <v>204</v>
+      </c>
+      <c r="F54" t="s">
+        <v>267</v>
+      </c>
+      <c r="G54" t="s">
+        <v>330</v>
+      </c>
+      <c r="H54" t="s">
+        <v>393</v>
+      </c>
+      <c r="I54" t="s">
+        <v>456</v>
+      </c>
+      <c r="J54" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" t="s">
+        <v>14</v>
+      </c>
+      <c r="B55" t="s">
+        <v>12</v>
+      </c>
+      <c r="C55" t="s">
+        <v>79</v>
+      </c>
+      <c r="D55" t="s">
+        <v>142</v>
+      </c>
+      <c r="E55" t="s">
+        <v>205</v>
+      </c>
+      <c r="F55" t="s">
+        <v>268</v>
+      </c>
+      <c r="G55" t="s">
+        <v>331</v>
+      </c>
+      <c r="H55" t="s">
+        <v>394</v>
+      </c>
+      <c r="I55" t="s">
+        <v>457</v>
+      </c>
+      <c r="J55" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" t="s">
+        <v>13</v>
+      </c>
+      <c r="B56" t="s">
+        <v>25</v>
+      </c>
+      <c r="C56" t="s">
+        <v>80</v>
+      </c>
+      <c r="D56" t="s">
+        <v>143</v>
+      </c>
+      <c r="E56" t="s">
+        <v>206</v>
+      </c>
+      <c r="F56" t="s">
+        <v>269</v>
+      </c>
+      <c r="G56" t="s">
+        <v>332</v>
+      </c>
+      <c r="H56" t="s">
+        <v>395</v>
+      </c>
+      <c r="I56" t="s">
+        <v>458</v>
+      </c>
+      <c r="J56" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" t="s">
+        <v>14</v>
+      </c>
+      <c r="B57" t="s">
+        <v>24</v>
+      </c>
+      <c r="C57" t="s">
+        <v>81</v>
+      </c>
+      <c r="D57" t="s">
+        <v>144</v>
+      </c>
+      <c r="E57" t="s">
+        <v>207</v>
+      </c>
+      <c r="F57" t="s">
+        <v>270</v>
+      </c>
+      <c r="G57" t="s">
+        <v>333</v>
+      </c>
+      <c r="H57" t="s">
+        <v>396</v>
+      </c>
+      <c r="I57" t="s">
+        <v>459</v>
+      </c>
+      <c r="J57" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" t="s">
+        <v>14</v>
+      </c>
+      <c r="B58" t="s">
+        <v>21</v>
+      </c>
+      <c r="C58" t="s">
+        <v>82</v>
+      </c>
+      <c r="D58" t="s">
+        <v>145</v>
+      </c>
+      <c r="E58" t="s">
+        <v>208</v>
+      </c>
+      <c r="F58" t="s">
+        <v>271</v>
+      </c>
+      <c r="G58" t="s">
+        <v>334</v>
+      </c>
+      <c r="H58" t="s">
+        <v>397</v>
+      </c>
+      <c r="I58" t="s">
+        <v>460</v>
+      </c>
+      <c r="J58" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" t="s">
         <v>15</v>
       </c>
-      <c r="G2" t="s">
+      <c r="B59" t="s">
         <v>16</v>
       </c>
-      <c r="H2" t="s">
+      <c r="C59" t="s">
+        <v>83</v>
+      </c>
+      <c r="D59" t="s">
+        <v>146</v>
+      </c>
+      <c r="E59" t="s">
+        <v>209</v>
+      </c>
+      <c r="F59" t="s">
+        <v>272</v>
+      </c>
+      <c r="G59" t="s">
+        <v>335</v>
+      </c>
+      <c r="H59" t="s">
+        <v>398</v>
+      </c>
+      <c r="I59" t="s">
+        <v>461</v>
+      </c>
+      <c r="J59" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" t="s">
+        <v>15</v>
+      </c>
+      <c r="B60" t="s">
+        <v>25</v>
+      </c>
+      <c r="C60" t="s">
+        <v>84</v>
+      </c>
+      <c r="D60" t="s">
+        <v>147</v>
+      </c>
+      <c r="E60" t="s">
+        <v>210</v>
+      </c>
+      <c r="F60" t="s">
+        <v>273</v>
+      </c>
+      <c r="G60" t="s">
+        <v>336</v>
+      </c>
+      <c r="H60" t="s">
+        <v>399</v>
+      </c>
+      <c r="I60" t="s">
+        <v>462</v>
+      </c>
+      <c r="J60" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61" t="s">
+        <v>15</v>
+      </c>
+      <c r="B61" t="s">
         <v>17</v>
       </c>
-      <c r="I2" t="s">
+      <c r="C61" t="s">
+        <v>85</v>
+      </c>
+      <c r="D61" t="s">
+        <v>148</v>
+      </c>
+      <c r="E61" t="s">
+        <v>211</v>
+      </c>
+      <c r="F61" t="s">
+        <v>274</v>
+      </c>
+      <c r="G61" t="s">
+        <v>337</v>
+      </c>
+      <c r="H61" t="s">
+        <v>400</v>
+      </c>
+      <c r="I61" t="s">
+        <v>463</v>
+      </c>
+      <c r="J61" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62" t="s">
+        <v>14</v>
+      </c>
+      <c r="B62" t="s">
         <v>18</v>
       </c>
-      <c r="J2" t="s">
-        <v>19</v>
+      <c r="C62" t="s">
+        <v>86</v>
+      </c>
+      <c r="D62" t="s">
+        <v>149</v>
+      </c>
+      <c r="E62" t="s">
+        <v>212</v>
+      </c>
+      <c r="F62" t="s">
+        <v>275</v>
+      </c>
+      <c r="G62" t="s">
+        <v>338</v>
+      </c>
+      <c r="H62" t="s">
+        <v>401</v>
+      </c>
+      <c r="I62" t="s">
+        <v>464</v>
+      </c>
+      <c r="J62" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="A63" t="s">
+        <v>15</v>
+      </c>
+      <c r="B63" t="s">
+        <v>24</v>
+      </c>
+      <c r="C63" t="s">
+        <v>87</v>
+      </c>
+      <c r="D63" t="s">
+        <v>150</v>
+      </c>
+      <c r="E63" t="s">
+        <v>213</v>
+      </c>
+      <c r="F63" t="s">
+        <v>276</v>
+      </c>
+      <c r="G63" t="s">
+        <v>339</v>
+      </c>
+      <c r="H63" t="s">
+        <v>402</v>
+      </c>
+      <c r="I63" t="s">
+        <v>465</v>
+      </c>
+      <c r="J63" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="A64" t="s">
+        <v>15</v>
+      </c>
+      <c r="B64" t="s">
+        <v>21</v>
+      </c>
+      <c r="C64" t="s">
+        <v>88</v>
+      </c>
+      <c r="D64" t="s">
+        <v>151</v>
+      </c>
+      <c r="E64" t="s">
+        <v>214</v>
+      </c>
+      <c r="F64" t="s">
+        <v>277</v>
+      </c>
+      <c r="G64" t="s">
+        <v>340</v>
+      </c>
+      <c r="H64" t="s">
+        <v>403</v>
+      </c>
+      <c r="I64" t="s">
+        <v>466</v>
+      </c>
+      <c r="J64" t="s">
+        <v>529</v>
       </c>
     </row>
   </sheetData>
